--- a/RMPI/results.xlsx
+++ b/RMPI/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\city-ds-final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacharias.detorakis\Desktop\city-ds-final-project\RMPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B72AB11-3BE5-4AC3-B361-5136EC550432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DAFF24-E5C3-41D1-B9AC-FEA76EC138C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,18 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="4" sqref="C2 C3 C5 C6 C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -436,8 +436,15 @@
       <c r="C2">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>1285.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -447,8 +454,15 @@
       <c r="C3">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">D3*C3</f>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -458,8 +472,15 @@
       <c r="C4">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -469,8 +490,15 @@
       <c r="C5">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1363.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -480,8 +508,15 @@
       <c r="C6">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -491,16 +526,33 @@
       <c r="C7">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1132.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1171.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -508,15 +560,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>97.65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97.7</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1465.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f>SUM(E2:E10)/SUM(D2:D10)</f>
+        <v>79.487499999999997</v>
       </c>
     </row>
   </sheetData>
